--- a/docs/DacTaPhanMem/Rest_API_docs.xlsx
+++ b/docs/DacTaPhanMem/Rest_API_docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\DATN\docs\DacTaPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5744D63-4BFB-4475-A1BF-3077CD52CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78B657-743A-4C38-A620-B077771C54E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE7F12E1-9B3D-4F77-93D1-521EB8D5BB09}"/>
   </bookViews>
@@ -324,14 +324,6 @@
     <t>Dùng để chấp nhận hoặc từ chối ứng viên</t>
   </si>
   <si>
-    <t>hồ sơ ứng tuyển:
-apply: {
-    job: {},
-   studentCv: {},
-   status: 0/1/2
-}</t>
-  </si>
-  <si>
     <t>message: "Xét duyệt thành công, kết quả xết duyệt đã được gửi tới email sinh viên"</t>
   </si>
   <si>
@@ -440,6 +432,14 @@
   </si>
   <si>
     <t>Thông tin chi tiết công việc</t>
+  </si>
+  <si>
+    <t>hồ sơ ứng tuyển:
+apply: {
+    jobId: {},
+   studentCvId: {},
+   status: 0/1/2
+}</t>
   </si>
 </sst>
 </file>
@@ -832,8 +832,8 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -990,7 +990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1074,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -1091,7 +1091,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1108,11 +1108,11 @@
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="5">
         <v>400</v>
@@ -1137,7 +1137,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1402,16 +1402,16 @@
         <v>82</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1419,18 +1419,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1440,26 +1440,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="5">
+        <v>400</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="H23" s="5">
-        <v>400</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1467,18 +1467,18 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1488,26 +1488,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="3">
+        <v>400</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H25" s="3">
-        <v>400</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1515,28 +1515,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="3">
+        <v>400</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1544,28 +1544,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1573,28 +1573,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="3">
+        <v>400</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="H28" s="3">
-        <v>400</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
